--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9577A-CA4E-5C42-8114-5775D44F2284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED93A97-0D1E-BE42-88DD-1D2E791E8376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="220">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3135,7 +3135,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3549,6 +3549,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4096,8 +4105,8 @@
   </sheetPr>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4152,11 +4161,11 @@
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="134" t="s">
         <v>166</v>
       </c>
@@ -5422,8 +5431,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6069,7 +6078,9 @@
         <v>141</v>
       </c>
       <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="24">
         <v>0</v>
       </c>
@@ -6099,7 +6110,9 @@
       <c r="F42" s="25"/>
       <c r="G42" s="86"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="31"/>
       <c r="L42" s="21">
@@ -6129,7 +6142,9 @@
       <c r="H43" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
       <c r="L43" s="21"/>
@@ -6153,7 +6168,9 @@
       <c r="F44" s="82"/>
       <c r="G44" s="88"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="31"/>
       <c r="L44" s="21"/>
@@ -6179,7 +6196,9 @@
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J45" s="25"/>
       <c r="K45" s="32"/>
       <c r="L45" s="25"/>
@@ -6205,7 +6224,9 @@
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="31"/>
       <c r="L46" s="21"/>
@@ -6229,7 +6250,9 @@
       <c r="F47" s="26"/>
       <c r="G47" s="87"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="31"/>
       <c r="L47" s="21"/>
@@ -6610,8 +6633,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S42" sqref="G42:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7214,7 +7237,9 @@
         <v>141</v>
       </c>
       <c r="H38" s="67"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
@@ -7239,7 +7264,9 @@
       <c r="F39" s="67"/>
       <c r="G39" s="90"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
@@ -7262,7 +7289,9 @@
       <c r="F40" s="70"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
@@ -7285,7 +7314,9 @@
       <c r="F41" s="74"/>
       <c r="G41" s="94"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -7310,7 +7341,9 @@
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
@@ -7333,7 +7366,9 @@
       <c r="F43" s="74"/>
       <c r="G43" s="92"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
@@ -7356,7 +7391,9 @@
       <c r="F44" s="74"/>
       <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
@@ -7730,8 +7767,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8377,7 +8414,9 @@
         <v>141</v>
       </c>
       <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="24">
         <v>0</v>
       </c>
@@ -8407,7 +8446,9 @@
       <c r="F42" s="25"/>
       <c r="G42" s="86"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="31"/>
       <c r="L42" s="21">
@@ -8437,7 +8478,9 @@
       <c r="H43" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
       <c r="L43" s="21"/>
@@ -8461,7 +8504,9 @@
       <c r="F44" s="82"/>
       <c r="G44" s="88"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="31"/>
       <c r="L44" s="21"/>
@@ -8487,7 +8532,9 @@
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J45" s="25"/>
       <c r="K45" s="32"/>
       <c r="L45" s="25"/>
@@ -8513,7 +8560,9 @@
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="31"/>
       <c r="L46" s="21"/>
@@ -8537,7 +8586,9 @@
       <c r="F47" s="26"/>
       <c r="G47" s="87"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="31"/>
       <c r="L47" s="21"/>
@@ -8922,7 +8973,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD20"/>
+      <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9525,7 +9576,9 @@
         <v>141</v>
       </c>
       <c r="H38" s="67"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
@@ -9550,7 +9603,9 @@
       <c r="F39" s="67"/>
       <c r="G39" s="90"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
@@ -9573,7 +9628,9 @@
       <c r="F40" s="70"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
@@ -9596,7 +9653,9 @@
       <c r="F41" s="74"/>
       <c r="G41" s="94"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -9621,7 +9680,9 @@
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
@@ -9644,7 +9705,9 @@
       <c r="F43" s="74"/>
       <c r="G43" s="92"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
@@ -9667,7 +9730,9 @@
       <c r="F44" s="74"/>
       <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
@@ -10042,7 +10107,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+      <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10688,7 +10753,9 @@
         <v>141</v>
       </c>
       <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="24">
         <v>0</v>
       </c>
@@ -10718,7 +10785,9 @@
       <c r="F42" s="25"/>
       <c r="G42" s="86"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="31"/>
       <c r="L42" s="21">
@@ -10748,7 +10817,9 @@
       <c r="H43" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
       <c r="L43" s="21"/>
@@ -10772,7 +10843,9 @@
       <c r="F44" s="82"/>
       <c r="G44" s="88"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="31"/>
       <c r="L44" s="21"/>
@@ -10798,7 +10871,9 @@
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J45" s="25"/>
       <c r="K45" s="32"/>
       <c r="L45" s="25"/>
@@ -10824,7 +10899,9 @@
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="31"/>
       <c r="L46" s="21"/>
@@ -10848,7 +10925,9 @@
       <c r="F47" s="26"/>
       <c r="G47" s="87"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="31"/>
       <c r="L47" s="21"/>
@@ -11232,8 +11311,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11836,7 +11915,9 @@
         <v>141</v>
       </c>
       <c r="H38" s="67"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
@@ -11861,7 +11942,9 @@
       <c r="F39" s="67"/>
       <c r="G39" s="90"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
@@ -11884,7 +11967,9 @@
       <c r="F40" s="70"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
@@ -11907,7 +11992,9 @@
       <c r="F41" s="74"/>
       <c r="G41" s="94"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -11932,7 +12019,9 @@
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
@@ -11955,7 +12044,9 @@
       <c r="F43" s="74"/>
       <c r="G43" s="92"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
@@ -11978,7 +12069,9 @@
       <c r="F44" s="74"/>
       <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
@@ -12352,8 +12445,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13005,7 +13098,9 @@
         <v>141</v>
       </c>
       <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="24">
         <v>0</v>
       </c>
@@ -13035,7 +13130,9 @@
       <c r="F42" s="25"/>
       <c r="G42" s="86"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="31"/>
       <c r="L42" s="21">
@@ -13065,7 +13162,9 @@
       <c r="H43" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="31"/>
       <c r="L43" s="21"/>
@@ -13089,7 +13188,9 @@
       <c r="F44" s="82"/>
       <c r="G44" s="88"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="31"/>
       <c r="L44" s="21"/>
@@ -13115,7 +13216,9 @@
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J45" s="25"/>
       <c r="K45" s="32"/>
       <c r="L45" s="25"/>
@@ -13141,7 +13244,9 @@
       <c r="F46" s="26"/>
       <c r="G46" s="87"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="31"/>
       <c r="L46" s="21"/>
@@ -13165,7 +13270,9 @@
       <c r="F47" s="26"/>
       <c r="G47" s="87"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="31"/>
       <c r="L47" s="21"/>
@@ -13550,7 +13657,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD20"/>
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14153,7 +14260,9 @@
         <v>141</v>
       </c>
       <c r="H38" s="67"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
@@ -14178,7 +14287,9 @@
       <c r="F39" s="67"/>
       <c r="G39" s="90"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
@@ -14201,7 +14312,9 @@
       <c r="F40" s="70"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
@@ -14224,7 +14337,9 @@
       <c r="F41" s="74"/>
       <c r="G41" s="94"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -14249,7 +14364,9 @@
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
@@ -14272,7 +14389,9 @@
       <c r="F43" s="74"/>
       <c r="G43" s="92"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
@@ -14295,7 +14414,9 @@
       <c r="F44" s="74"/>
       <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED93A97-0D1E-BE42-88DD-1D2E791E8376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F94EA4-FFF3-C540-BD54-99E76C663371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="21420" windowHeight="17820" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="208">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2004,14 +2004,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>array&lt;ObjectSample&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2023,63 +2015,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>array&lt;ObjectSample&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>array&lt;ObjectSample&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>array&lt;ObjectSample&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ObjectSample</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2256,6 +2200,14 @@
   </si>
   <si>
     <t>nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SimpleSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SimpleSample2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3384,94 +3336,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3483,6 +3351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3493,6 +3364,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3513,10 +3390,91 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3535,6 +3493,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3544,20 +3508,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4105,7 +4057,7 @@
   </sheetPr>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -4149,147 +4101,147 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="134" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="178" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="134" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="134"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="134" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="134"/>
+      <c r="E8" s="178"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="134" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="134" t="s">
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="134"/>
+      <c r="E11" s="178"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="135"/>
+      <c r="A12" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="179"/>
       <c r="F12" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="135"/>
+      <c r="A13" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="179"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="115"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
+      <c r="A15" s="140" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="101" t="s">
         <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4304,19 +4256,19 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
+      <c r="A17" s="168" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="102" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B18" s="111"/>
       <c r="C18" s="103"/>
@@ -4343,7 +4295,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="99" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="100"/>
@@ -4356,28 +4308,28 @@
       <c r="C21"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="A22" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="173"/>
+      <c r="B23" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
@@ -4388,12 +4340,12 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="117"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="113"/>
       <c r="I24" s="113"/>
       <c r="J24" s="113"/>
@@ -4404,12 +4356,12 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="118"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
       <c r="J25" s="113"/>
@@ -4420,12 +4372,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="119"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4438,28 +4390,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="A28" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="B29" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
@@ -4472,14 +4424,14 @@
       <c r="A30" s="117">
         <v>1</v>
       </c>
-      <c r="B30" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
+      <c r="B30" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
       <c r="J30" s="113"/>
@@ -4490,12 +4442,12 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="118"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
       <c r="J31" s="113"/>
@@ -4506,12 +4458,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="119"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4536,28 +4488,28 @@
       <c r="M33"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="174" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="176"/>
+      <c r="A34" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
+      <c r="B35" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
@@ -4568,12 +4520,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="117"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
       <c r="J36" s="113"/>
@@ -4584,12 +4536,12 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="118"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="158"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="165"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
       <c r="J37" s="113"/>
@@ -4600,12 +4552,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="119"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="160"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="166"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4640,248 +4592,263 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="164" t="s">
+      <c r="A41" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="164" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="165"/>
-      <c r="E41" s="166"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="161"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="163"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="145"/>
       <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="145"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="145"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="145"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="145"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="147"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="145"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="147"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="145"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="147"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="145"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="145"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="145"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="145"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="145"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="147"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="145"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="147"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="145"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="147"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="145"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="145"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="147"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="145"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="147"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="135"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="145"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="135"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="145"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="135"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="145"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="147"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="135"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="145"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="147"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="145"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="147"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="135"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="145"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="147"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="135"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="145"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="147"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="135"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="148"/>
-      <c r="B66" s="150"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="150"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="153"/>
       <c r="F66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
@@ -4898,50 +4865,35 @@
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5355,10 +5307,10 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5432,7 +5384,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5537,7 +5489,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="122" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="54"/>
@@ -5623,27 +5575,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="135"/>
+      <c r="C15" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="135"/>
+      <c r="C16" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5652,14 +5604,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -5675,28 +5627,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="A19" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="B20" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5708,12 +5660,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -5725,12 +5677,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5742,12 +5694,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5761,28 +5713,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="A25" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5796,14 +5748,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5815,12 +5767,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5832,12 +5784,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5864,28 +5816,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="A31" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5897,12 +5849,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -5914,12 +5866,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -5931,12 +5883,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -5990,58 +5942,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="177" t="s">
+      <c r="F39" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="181" t="s">
+      <c r="I39" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6057,7 +6009,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -6191,7 +6143,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -6205,7 +6157,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6244,7 +6196,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -6551,6 +6503,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6567,19 +6532,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6634,7 +6586,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S42" sqref="G42:S42"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6718,7 +6670,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -6785,15 +6737,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="135"/>
+      <c r="C12" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -6801,13 +6753,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="135"/>
+      <c r="C13" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6816,14 +6768,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6839,28 +6791,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="A16" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="B17" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6871,12 +6823,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -6887,12 +6839,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6903,12 +6855,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -6923,29 +6875,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="A22" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -6959,14 +6911,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -6977,12 +6929,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -6993,12 +6945,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -7025,29 +6977,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="A28" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="B29" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7059,12 +7011,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7076,12 +7028,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7092,12 +7044,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7147,45 +7099,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="183" t="s">
+      <c r="F36" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="185" t="s">
+      <c r="I36" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7196,11 +7148,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7336,7 +7288,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -7385,7 +7337,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -7692,20 +7644,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7720,6 +7658,20 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7768,7 +7720,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7959,27 +7911,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="135"/>
+      <c r="C15" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="135"/>
+      <c r="C16" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -7988,14 +7940,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -8011,28 +7963,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="A19" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="B20" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8044,12 +7996,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -8061,12 +8013,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8078,12 +8030,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8097,28 +8049,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="A25" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8132,14 +8084,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8151,12 +8103,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8168,12 +8120,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8200,28 +8152,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="A31" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8233,12 +8185,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8250,12 +8202,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8267,12 +8219,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8326,58 +8278,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="177" t="s">
+      <c r="F39" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="181" t="s">
+      <c r="I39" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8393,7 +8345,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8527,7 +8479,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -8541,7 +8493,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -8580,7 +8532,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -8887,6 +8839,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8899,23 +8868,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8973,7 +8925,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I44"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9057,7 +9009,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -9124,15 +9076,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="135"/>
+      <c r="C12" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -9140,13 +9092,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="135"/>
+      <c r="C13" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9155,14 +9107,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -9178,28 +9130,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="A16" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="B17" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9210,12 +9162,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -9226,12 +9178,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9242,12 +9194,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9262,29 +9214,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="A22" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9298,14 +9250,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9316,12 +9268,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9332,12 +9284,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9364,29 +9316,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="A28" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="B29" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9398,12 +9350,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9415,12 +9367,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9431,12 +9383,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9486,45 +9438,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="183" t="s">
+      <c r="F36" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="185" t="s">
+      <c r="I36" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9535,11 +9487,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9675,7 +9627,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -9724,7 +9676,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -10031,6 +9983,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10042,23 +10011,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10107,7 +10059,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10298,27 +10250,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="135"/>
+      <c r="C15" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="135"/>
+      <c r="C16" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10327,14 +10279,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -10350,28 +10302,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="A19" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="B20" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10383,12 +10335,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -10400,12 +10352,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10417,12 +10369,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10436,28 +10388,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="A25" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10471,14 +10423,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10490,12 +10442,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10507,12 +10459,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10539,28 +10491,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="A31" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10572,12 +10524,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10589,12 +10541,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10606,12 +10558,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10665,58 +10617,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="177" t="s">
+      <c r="F39" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="181" t="s">
+      <c r="I39" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10732,7 +10684,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -10866,7 +10818,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -10880,7 +10832,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -10919,7 +10871,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -11226,6 +11178,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11238,23 +11207,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11312,7 +11264,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I44"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11396,7 +11348,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -11463,15 +11415,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="135"/>
+      <c r="C12" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -11479,13 +11431,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="135"/>
+      <c r="C13" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11494,14 +11446,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -11517,28 +11469,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="A16" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="B17" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11549,12 +11501,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -11565,12 +11517,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11581,12 +11533,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11601,29 +11553,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="A22" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11637,14 +11589,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11655,12 +11607,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11671,12 +11623,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11703,29 +11655,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="A28" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="B29" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11737,12 +11689,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11754,12 +11706,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11770,12 +11722,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11825,45 +11777,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="183" t="s">
+      <c r="F36" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="185" t="s">
+      <c r="I36" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11874,11 +11826,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -12014,7 +11966,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -12063,7 +12015,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -12370,6 +12322,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12381,23 +12350,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12445,8 +12397,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I47"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12641,27 +12593,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B15" s="123"/>
-      <c r="C15" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="135"/>
+      <c r="C15" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="179"/>
       <c r="E15" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B16" s="123"/>
-      <c r="C16" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="135"/>
+      <c r="C16" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="179"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12670,14 +12622,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -12693,28 +12645,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="A19" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="B20" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12726,12 +12678,12 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="117"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -12743,12 +12695,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12760,12 +12712,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12779,28 +12731,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="176"/>
+      <c r="A25" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
+      <c r="B26" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12814,14 +12766,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12833,12 +12785,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12850,12 +12802,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12882,28 +12834,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="A31" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -12915,12 +12867,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="117"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -12932,12 +12884,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="165"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -12949,12 +12901,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="166"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -13010,58 +12962,58 @@
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="177" t="s">
+      <c r="F39" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="181" t="s">
+      <c r="I39" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="182"/>
-      <c r="L39" s="181" t="s">
+      <c r="K39" s="184"/>
+      <c r="L39" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="182"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="177" t="s">
+      <c r="O39" s="180" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13077,7 +13029,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="179"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13211,7 +13163,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -13225,7 +13177,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -13264,7 +13216,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -13571,6 +13523,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13583,23 +13552,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13656,8 +13608,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13741,7 +13693,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -13808,15 +13760,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B12" s="123"/>
-      <c r="C12" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="135"/>
+      <c r="C12" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="179"/>
       <c r="E12" s="96" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -13824,13 +13776,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B13" s="123"/>
-      <c r="C13" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="135"/>
+      <c r="C13" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="179"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13839,14 +13791,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -13862,28 +13814,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="A16" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="173"/>
+      <c r="B17" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13894,12 +13846,12 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="117"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
@@ -13910,12 +13862,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -13926,12 +13878,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -13946,29 +13898,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="176"/>
+      <c r="A22" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
+      <c r="B23" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -13982,14 +13934,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -14000,12 +13952,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -14016,12 +13968,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14048,29 +14000,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
+      <c r="A28" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
+      <c r="B29" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14082,12 +14034,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14099,12 +14051,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14115,12 +14067,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14170,45 +14122,45 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="185" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="183" t="s">
+      <c r="F36" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="183" t="s">
+      <c r="H36" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="185" t="s">
+      <c r="I36" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187" t="s">
+      <c r="K36" s="190"/>
+      <c r="L36" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="186"/>
+      <c r="M36" s="190"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="183" t="s">
+      <c r="O36" s="185" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14219,11 +14171,11 @@
         <v>121</v>
       </c>
       <c r="D37" s="188"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="192"/>
       <c r="G37" s="188"/>
       <c r="H37" s="188"/>
-      <c r="I37" s="178"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14359,7 +14311,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -14408,7 +14360,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -14715,6 +14667,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14725,24 +14695,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F94EA4-FFF3-C540-BD54-99E76C663371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06369F0-71F0-9B4B-991A-816D0F8D2A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="21420" windowHeight="17820" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="210">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1990,10 +1990,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>blancoRestのサンプルAPIです。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>blancoRestのサンプルAPIの要求電文です。</t>
     <rPh sb="19" eb="21">
       <t>ヨウキュウ</t>
@@ -2208,6 +2204,33 @@
   </si>
   <si>
     <t>SimpleSample2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoRestのサンプルAPIです。&lt;br&gt;
+説明の2行目です。&lt;br&gt;
+3行目はどうでしょう？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールド１&lt;br&gt;
+2行目&lt;br&gt;
+3行目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoRestのサンプルAPIの要求電文です。&lt;br&gt;
+2行目です&lt;br&gt;
+そして3行目</t>
+    <rPh sb="19" eb="21">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デンブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ギョウメ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3087,7 +3110,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3336,10 +3359,91 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,9 +3455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3364,12 +3465,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3390,51 +3485,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3447,34 +3497,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3493,12 +3519,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3508,8 +3528,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4058,7 +4093,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4101,147 +4136,147 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="178" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="178"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="174" t="s">
+    <row r="7" spans="1:12" ht="64" customHeight="1">
+      <c r="A7" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="135"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="178" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="178"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="178" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="178"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="178" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="178"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="143" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="179" t="s">
+      <c r="E12" s="136"/>
+      <c r="F12" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="96" t="s">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="139" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="179"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="115"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
+      <c r="A15" s="166" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="101" t="s">
         <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4256,19 +4291,19 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="168" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
+      <c r="A17" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="179"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="111"/>
       <c r="C18" s="103"/>
@@ -4295,7 +4330,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="100"/>
@@ -4308,28 +4343,28 @@
       <c r="C21"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="167" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
+      <c r="A22" s="176" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="172"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
@@ -4356,12 +4391,12 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="118"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
       <c r="J25" s="113"/>
@@ -4372,12 +4407,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="119"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4390,28 +4425,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="106"/>
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
@@ -4424,14 +4459,14 @@
       <c r="A30" s="117">
         <v>1</v>
       </c>
-      <c r="B30" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
+      <c r="B30" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
       <c r="J30" s="113"/>
@@ -4442,12 +4477,12 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="118"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
       <c r="J31" s="113"/>
@@ -4458,12 +4493,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="119"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4488,28 +4523,28 @@
       <c r="M33"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="A34" s="173" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="175"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
@@ -4525,7 +4560,7 @@
       <c r="D36" s="154"/>
       <c r="E36" s="154"/>
       <c r="F36" s="154"/>
-      <c r="G36" s="164"/>
+      <c r="G36" s="155"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
       <c r="J36" s="113"/>
@@ -4536,12 +4571,12 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="118"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="165"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
       <c r="J37" s="113"/>
@@ -4552,12 +4587,12 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="119"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="166"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="159"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4592,238 +4627,275 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="136" t="s">
+      <c r="B41" s="169"/>
+      <c r="C41" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="165"/>
       <c r="F41" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="145"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="162"/>
       <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="135"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="146"/>
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="134"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="135"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="146"/>
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="135"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="146"/>
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="135"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="135"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="146"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="146"/>
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="135"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="146"/>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="135"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="146"/>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="146"/>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="135"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="146"/>
       <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="135"/>
+      <c r="A52" s="144"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="146"/>
       <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="135"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="146"/>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="135"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="146"/>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="135"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="146"/>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="134"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="135"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="146"/>
       <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="134"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="135"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="146"/>
       <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="135"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="146"/>
       <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="134"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="135"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="146"/>
       <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="134"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="135"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="146"/>
       <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="135"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="146"/>
       <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="134"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="135"/>
+      <c r="A62" s="144"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="146"/>
       <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="134"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="135"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="146"/>
       <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="135"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="146"/>
       <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="134"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="135"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="146"/>
       <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="152"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="153"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="149"/>
       <c r="F66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="B29:G29"/>
@@ -4840,60 +4912,23 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5307,10 +5342,10 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5383,8 +5418,8 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5464,15 +5499,15 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="60" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="35"/>
+      <c r="C7" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="196"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -5489,7 +5524,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="54"/>
@@ -5575,27 +5610,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5604,14 +5639,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -5627,28 +5662,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5677,12 +5712,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5694,12 +5729,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5713,28 +5748,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5748,14 +5783,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5767,12 +5802,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5784,12 +5819,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5816,28 +5851,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="175"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5854,7 +5889,7 @@
       <c r="D33" s="154"/>
       <c r="E33" s="154"/>
       <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -5866,12 +5901,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -5883,12 +5918,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -5948,17 +5983,17 @@
       <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>185</v>
+      <c r="F39" s="186" t="s">
+        <v>184</v>
       </c>
       <c r="G39" s="180" t="s">
         <v>13</v>
@@ -5967,16 +6002,16 @@
         <v>116</v>
       </c>
       <c r="I39" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -5985,15 +6020,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="181"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -6009,17 +6044,17 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="O40" s="182"/>
+    </row>
+    <row r="41" spans="1:20" ht="45">
       <c r="A41" s="7">
         <v>1</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>92</v>
+      <c r="C41" s="194" t="s">
+        <v>208</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>103</v>
@@ -6143,7 +6178,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -6157,7 +6192,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6196,7 +6231,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -6502,20 +6537,8 @@
       <c r="O64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
+  <mergeCells count="30">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A19:G19"/>
@@ -6532,6 +6555,19 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6670,7 +6706,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -6737,15 +6773,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -6753,13 +6789,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -6768,14 +6804,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6791,28 +6827,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6839,12 +6875,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6855,12 +6891,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -6875,29 +6911,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -6911,14 +6947,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -6929,12 +6965,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -6945,12 +6981,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -6977,29 +7013,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -7016,7 +7052,7 @@
       <c r="D30" s="154"/>
       <c r="E30" s="154"/>
       <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -7028,12 +7064,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -7044,12 +7080,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -7099,60 +7135,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -7168,7 +7204,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -7288,7 +7324,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -7337,7 +7373,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -7644,6 +7680,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G36:G37"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I36:I37"/>
@@ -7660,18 +7708,6 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7806,7 +7842,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="129"/>
       <c r="E7" s="54"/>
@@ -7911,27 +7947,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -7940,14 +7976,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -7963,28 +7999,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -8013,12 +8049,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -8030,12 +8066,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -8049,28 +8085,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -8084,14 +8120,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -8103,12 +8139,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -8120,12 +8156,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -8152,28 +8188,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="175"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -8190,7 +8226,7 @@
       <c r="D33" s="154"/>
       <c r="E33" s="154"/>
       <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -8202,12 +8238,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -8219,12 +8255,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -8284,17 +8320,17 @@
       <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>185</v>
+      <c r="F39" s="186" t="s">
+        <v>184</v>
       </c>
       <c r="G39" s="180" t="s">
         <v>13</v>
@@ -8303,16 +8339,16 @@
         <v>116</v>
       </c>
       <c r="I39" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -8321,15 +8357,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="181"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -8345,7 +8381,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -8479,7 +8515,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -8493,7 +8529,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -8532,7 +8568,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -8839,23 +8875,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8868,6 +8887,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9009,7 +9045,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -9076,15 +9112,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -9092,13 +9128,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -9107,14 +9143,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -9130,28 +9166,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -9178,12 +9214,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -9194,12 +9230,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -9214,29 +9250,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -9250,14 +9286,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -9268,12 +9304,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -9284,12 +9320,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -9316,29 +9352,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -9355,7 +9391,7 @@
       <c r="D30" s="154"/>
       <c r="E30" s="154"/>
       <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -9367,12 +9403,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -9383,12 +9419,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -9438,60 +9474,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
+      <c r="D37" s="191"/>
       <c r="E37" s="192"/>
       <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9507,7 +9543,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -9627,7 +9663,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -9676,7 +9712,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -9983,23 +10019,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -10011,6 +10030,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -10145,7 +10181,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -10250,27 +10286,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -10279,14 +10315,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -10302,28 +10338,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10352,12 +10388,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -10369,12 +10405,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -10388,28 +10424,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -10423,14 +10459,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -10442,12 +10478,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -10459,12 +10495,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -10491,28 +10527,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="175"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -10529,7 +10565,7 @@
       <c r="D33" s="154"/>
       <c r="E33" s="154"/>
       <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -10541,12 +10577,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -10558,12 +10594,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -10623,17 +10659,17 @@
       <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>185</v>
+      <c r="F39" s="186" t="s">
+        <v>184</v>
       </c>
       <c r="G39" s="180" t="s">
         <v>13</v>
@@ -10642,16 +10678,16 @@
         <v>116</v>
       </c>
       <c r="I39" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -10660,15 +10696,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="181"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -10684,7 +10720,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -10818,7 +10854,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -10832,7 +10868,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -10871,7 +10907,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -11178,23 +11214,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -11207,6 +11226,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11348,7 +11384,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -11415,15 +11451,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -11431,13 +11467,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -11446,14 +11482,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -11469,28 +11505,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -11517,12 +11553,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -11533,12 +11569,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -11553,29 +11589,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -11589,14 +11625,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -11607,12 +11643,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -11623,12 +11659,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -11655,29 +11691,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -11694,7 +11730,7 @@
       <c r="D30" s="154"/>
       <c r="E30" s="154"/>
       <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -11706,12 +11742,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -11722,12 +11758,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -11777,60 +11813,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="187"/>
       <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -11846,7 +11882,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -11966,7 +12002,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -12015,7 +12051,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -12322,23 +12358,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -12350,6 +12369,23 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12488,7 +12524,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -12593,27 +12629,27 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="179" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -12622,14 +12658,14 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -12645,28 +12681,28 @@
       <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -12695,12 +12731,12 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="118"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -12712,12 +12748,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="119"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -12731,28 +12767,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -12766,14 +12802,14 @@
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -12785,12 +12821,12 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="118"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -12802,12 +12838,12 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="119"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -12834,28 +12870,28 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="175"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
+      <c r="B32" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -12872,7 +12908,7 @@
       <c r="D33" s="154"/>
       <c r="E33" s="154"/>
       <c r="F33" s="154"/>
-      <c r="G33" s="164"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -12884,12 +12920,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="118"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="165"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -12901,12 +12937,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="119"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -12968,17 +13004,17 @@
       <c r="B39" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="185" t="s">
-        <v>185</v>
+      <c r="F39" s="186" t="s">
+        <v>184</v>
       </c>
       <c r="G39" s="180" t="s">
         <v>13</v>
@@ -12987,16 +13023,16 @@
         <v>116</v>
       </c>
       <c r="I39" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="183" t="s">
+      <c r="K39" s="185"/>
+      <c r="L39" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
@@ -13005,15 +13041,15 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="186"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="187"/>
       <c r="F40" s="192"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="187"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="181"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -13029,7 +13065,7 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="181"/>
+      <c r="O40" s="182"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
@@ -13163,7 +13199,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -13177,7 +13213,7 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -13216,7 +13252,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -13523,23 +13559,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -13552,6 +13571,23 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -13693,7 +13729,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -13760,15 +13796,15 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="179" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="96" t="s">
         <v>183</v>
-      </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="96" t="s">
-        <v>184</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
@@ -13776,13 +13812,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
@@ -13791,14 +13827,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -13814,28 +13850,28 @@
       <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -13862,12 +13898,12 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="118"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -13878,12 +13914,12 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="119"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -13898,29 +13934,29 @@
       <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="A22" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -13934,14 +13970,14 @@
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="B24" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -13952,12 +13988,12 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="118"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -13968,12 +14004,12 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="119"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -14000,29 +14036,29 @@
       <c r="N27"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="A28" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
       <c r="I28" s="113"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="160" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="B29" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -14039,7 +14075,7 @@
       <c r="D30" s="154"/>
       <c r="E30" s="154"/>
       <c r="F30" s="154"/>
-      <c r="G30" s="164"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -14051,12 +14087,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="118"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="165"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -14067,12 +14103,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="119"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="166"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -14122,60 +14158,60 @@
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="185" t="s">
+      <c r="B36" s="186" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="185" t="s">
+      <c r="D36" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="185" t="s">
+      <c r="F36" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="185" t="s">
+      <c r="H36" s="186" t="s">
         <v>139</v>
       </c>
       <c r="I36" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="190"/>
-      <c r="L36" s="191" t="s">
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="190"/>
+      <c r="M36" s="189"/>
       <c r="N36" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="185" t="s">
+      <c r="O36" s="186" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="186"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="187"/>
       <c r="F37" s="192"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -14191,7 +14227,7 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="188"/>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="64">
@@ -14311,7 +14347,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -14360,7 +14396,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -14667,24 +14703,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -14695,6 +14713,24 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
